--- a/biology/Zoologie/Chaitophorinae/Chaitophorinae.xlsx
+++ b/biology/Zoologie/Chaitophorinae/Chaitophorinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Chaitophorinae sont une sous-famille de pucerons de la famille des Aphididae. Il en existe environ 12 genres et plus de 180 espèces décrites[1],[2].   
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Chaitophorinae sont une sous-famille de pucerons de la famille des Aphididae. Il en existe environ 12 genres et plus de 180 espèces décrites,.   
 </t>
         </is>
       </c>
@@ -513,16 +525,55 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tribu: Chaitophorini
-Chaitogenophorus Zhang, Qiao et Chen, 1999
+          <t>Tribu: Chaitophorini</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Chaitogenophorus Zhang, Qiao et Chen, 1999
 Chaitophorus Koch, 1854
 Lambersaphis
 Periphyllus Hoeven, 1863 (pucerons de l'érable)
 Pseudopterocomma MacGillivray, 1963
 Trichaitophorus Takahashi, 1937
-Yamatochaitophorus Higuchi, 1972
-Tribu: Siphini
-Atheroides Haliday, 1839
+Yamatochaitophorus Higuchi, 1972</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chaitophorinae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chaitophorinae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Genres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Tribu: Siphini</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Atheroides Haliday, 1839
 Caricosipha Börner, 1939
 Chaetosiphella Hille Ris Lambers, 1939
 Laingia Theobald, 1922
